--- a/Test Data/ReportReference.xlsx
+++ b/Test Data/ReportReference.xlsx
@@ -9,12 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14040" windowHeight="4755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14040" windowHeight="4755"/>
   </bookViews>
   <sheets>
-    <sheet name="Conditions" sheetId="1" r:id="rId1"/>
-    <sheet name="Elements" sheetId="3" r:id="rId2"/>
-    <sheet name="Values" sheetId="2" r:id="rId3"/>
+    <sheet name="Aliases" sheetId="10" r:id="rId1"/>
+    <sheet name="SABR 48 Gy in 4F definition" sheetId="6" r:id="rId2"/>
+    <sheet name="SABR 60Gy in 8F definition" sheetId="11" r:id="rId3"/>
+    <sheet name="SABR 48 Gy in 4F criteria" sheetId="9" r:id="rId4"/>
+    <sheet name="Elements" sheetId="3" r:id="rId5"/>
+    <sheet name="Conditions" sheetId="1" r:id="rId6"/>
+    <sheet name="Values" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="313">
   <si>
     <t>Patient</t>
   </si>
@@ -358,9 +362,6 @@
     <t>unit</t>
   </si>
   <si>
-    <t>source</t>
-  </si>
-  <si>
     <t>element_value</t>
   </si>
   <si>
@@ -368,13 +369,841 @@
   </si>
   <si>
     <t>cell_format</t>
+  </si>
+  <si>
+    <t>source_type</t>
+  </si>
+  <si>
+    <t>Aorta</t>
+  </si>
+  <si>
+    <t>Stomach</t>
+  </si>
+  <si>
+    <t>Ipsilateral</t>
+  </si>
+  <si>
+    <t>Lung</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>V 100 %</t>
+  </si>
+  <si>
+    <t>V 90 %</t>
+  </si>
+  <si>
+    <t>V 20 Gy</t>
+  </si>
+  <si>
+    <t>V 1160 cGy</t>
+  </si>
+  <si>
+    <t>V 1240 Gy</t>
+  </si>
+  <si>
+    <t>V 40 Gy</t>
+  </si>
+  <si>
+    <t>V 3600 cGy</t>
+  </si>
+  <si>
+    <t>V 2360 cGy</t>
+  </si>
+  <si>
+    <t>GTV</t>
+  </si>
+  <si>
+    <t>ITV</t>
+  </si>
+  <si>
+    <t>PTV</t>
+  </si>
+  <si>
+    <t>Contralateral</t>
+  </si>
+  <si>
+    <t>Dose 105%-PTV</t>
+  </si>
+  <si>
+    <t>Dose 100%</t>
+  </si>
+  <si>
+    <t>Dose 50%</t>
+  </si>
+  <si>
+    <t>Body-PTV+2CM</t>
+  </si>
+  <si>
+    <t>Contralateral Lung</t>
+  </si>
+  <si>
+    <t>Ipsilateral Brachial Plexus</t>
+  </si>
+  <si>
+    <t>Plan Property</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Reference Point</t>
+  </si>
+  <si>
+    <t>source_laterality</t>
+  </si>
+  <si>
+    <t>Both</t>
+  </si>
+  <si>
+    <t>source_name</t>
+  </si>
+  <si>
+    <t>source_constructor</t>
+  </si>
+  <si>
+    <t>Aliases</t>
+  </si>
+  <si>
+    <t>Body-PTV+20</t>
+  </si>
+  <si>
+    <t>Ipsilat_Brach_Plex</t>
+  </si>
+  <si>
+    <t>Brachial Plexus LT</t>
+  </si>
+  <si>
+    <t>Br Plexus</t>
+  </si>
+  <si>
+    <t>BrachialPlexus R</t>
+  </si>
+  <si>
+    <t>Chest Wall</t>
+  </si>
+  <si>
+    <t>Esophagus</t>
+  </si>
+  <si>
+    <t>Dose 100[%]</t>
+  </si>
+  <si>
+    <t>Dose 50[%]</t>
+  </si>
+  <si>
+    <t>Dose105[%]-PTV</t>
+  </si>
+  <si>
+    <t>105-PTV</t>
+  </si>
+  <si>
+    <t>IGTV</t>
+  </si>
+  <si>
+    <t>IGTV 1</t>
+  </si>
+  <si>
+    <t>IGTV 2</t>
+  </si>
+  <si>
+    <t>Lung B</t>
+  </si>
+  <si>
+    <t>Whole_Lung</t>
+  </si>
+  <si>
+    <t>PRV20</t>
+  </si>
+  <si>
+    <t>Brl Tree</t>
+  </si>
+  <si>
+    <t>ProxBronchialZon</t>
+  </si>
+  <si>
+    <t>BronchialTree</t>
+  </si>
+  <si>
+    <t>PulmonaryArtery</t>
+  </si>
+  <si>
+    <t>Spinal Canal</t>
+  </si>
+  <si>
+    <t>PRV5 SpinalCanal</t>
+  </si>
+  <si>
+    <t>Trachea</t>
+  </si>
+  <si>
+    <t>Lung L</t>
+  </si>
+  <si>
+    <t>Skin</t>
+  </si>
+  <si>
+    <t>Heart</t>
+  </si>
+  <si>
+    <t>Plan</t>
+  </si>
+  <si>
+    <t>Prescribed dose</t>
+  </si>
+  <si>
+    <t>PRV20 Brl Tree</t>
+  </si>
+  <si>
+    <t>Patient:</t>
+  </si>
+  <si>
+    <t>CR#:</t>
+  </si>
+  <si>
+    <t>GTV Volume (cc)</t>
+  </si>
+  <si>
+    <t>ITV Volume (cc):</t>
+  </si>
+  <si>
+    <t>PTV Volume (cc)</t>
+  </si>
+  <si>
+    <t>Total Lung Volume (cc)</t>
+  </si>
+  <si>
+    <t>Plan Normalization Value (%)</t>
+  </si>
+  <si>
+    <t>Dose @COM-PTV (%)</t>
+  </si>
+  <si>
+    <t>PTV- Minimum Dose (%)</t>
+  </si>
+  <si>
+    <t>PTV - V100(%)</t>
+  </si>
+  <si>
+    <t>PTV - V90 (%)</t>
+  </si>
+  <si>
+    <t>Lung-Basic Function</t>
+  </si>
+  <si>
+    <t>Lung-Pneumonitis</t>
+  </si>
+  <si>
+    <t>Ipsilat. Brach. Plex.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Dosimetrist:</t>
+  </si>
+  <si>
+    <t>100% Dose covers 95% of Target Volume</t>
+  </si>
+  <si>
+    <t>SABR Plan Evaluation Sheet for 12Gy/fr Schedules (48 Gy in 4F) or (60Gy/5F)</t>
+  </si>
+  <si>
+    <t>Prescription Dose (cGy):</t>
+  </si>
+  <si>
+    <t>Site:</t>
+  </si>
+  <si>
+    <t>Fractions:</t>
+  </si>
+  <si>
+    <t>Plan Name:</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>60%-95%</t>
+  </si>
+  <si>
+    <t>111.1%-166.7%</t>
+  </si>
+  <si>
+    <t>Preferebly &lt;140%</t>
+  </si>
+  <si>
+    <t>PTV (V48Gy)</t>
+  </si>
+  <si>
+    <t>PTV (V43.2Gy)</t>
+  </si>
+  <si>
+    <t>&lt;15%</t>
+  </si>
+  <si>
+    <t>Volume of the structure (Dose 105% - PTV), D105% = 50.4 Gy</t>
+  </si>
+  <si>
+    <t>Ratio VD100%/VPTV (On DVH see BODY volume for 100% prescription dose)</t>
+  </si>
+  <si>
+    <t>Max dose (in %) ³2cm from PTV (structure BODY-(PTV+2cm)), should be £ R50 value in Table 1, MINOR deviation acceptable</t>
+  </si>
+  <si>
+    <t>Ratio VD50%/VPTV should be£ R50 value in Table 1, MINOR deviation acceptable</t>
+  </si>
+  <si>
+    <t>RTOG 0813 and 0236 (Deviations NONE=10%, MINOR=15%)</t>
+  </si>
+  <si>
+    <t>V11.6Gy ≤ 1500cc (R or L Lung)</t>
+  </si>
+  <si>
+    <t>LUSTRE</t>
+  </si>
+  <si>
+    <t>RTOG 0915</t>
+  </si>
+  <si>
+    <t>RTOG 0236</t>
+  </si>
+  <si>
+    <t>Physicist:</t>
+  </si>
+  <si>
+    <t>Radiation Oncologist:</t>
+  </si>
+  <si>
+    <t>Chestwall (including rib) limit may be exceeded if structure lies within PTV</t>
+  </si>
+  <si>
+    <t>V105% - PTV (cc) / PTV Volume (cc)</t>
+  </si>
+  <si>
+    <t>V100% (cc) / PTV Volume (cc)</t>
+  </si>
+  <si>
+    <t>V50% (cc)  / PTV Volume (cc)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">V40Gy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>£</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 10cc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">V20.8Gy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>£</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 0.35cc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">V13.6Gy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>£</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1.2cc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">V23.6Gy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve">£ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3cc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">V30Gy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve">£ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>10cc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">V28Gy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve">£ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>15cc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">V18.8Gy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>£</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 5cc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">V40Gy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>£</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 5cc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">V30Gy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>£</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 30cc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>V15.6G y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>£</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 4cc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>V21Gy</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>£</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1cc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>£</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>10%</t>
+    </r>
+  </si>
+  <si>
+    <t>Lookup</t>
+  </si>
+  <si>
+    <t>HIGH Dose Spillage Location</t>
+  </si>
+  <si>
+    <t>HIGH Dose Spillage Volume</t>
+  </si>
+  <si>
+    <t>LOW Dose Spillage Location</t>
+  </si>
+  <si>
+    <t>LOW Dose Spillage Volume</t>
+  </si>
+  <si>
+    <t>Total Lung Mean Dose</t>
+  </si>
+  <si>
+    <t>Total Lung V20</t>
+  </si>
+  <si>
+    <t>Contralateral Lung Mean Dose</t>
+  </si>
+  <si>
+    <t>Aorta  Maximum Dose</t>
+  </si>
+  <si>
+    <t>Aorta  V40Gy</t>
+  </si>
+  <si>
+    <t>Artery-Pulmonary Maximum Dose</t>
+  </si>
+  <si>
+    <t>Artery-Pulmonary V40Gy</t>
+  </si>
+  <si>
+    <t>Spinal Canal Maximum Dose</t>
+  </si>
+  <si>
+    <t>Spinal Canal V20.8Gy</t>
+  </si>
+  <si>
+    <t>Spinal Canal V13.6Gy</t>
+  </si>
+  <si>
+    <t>Spinal Canal-PRV 5mm Maximum Dose</t>
+  </si>
+  <si>
+    <t>Ipsilat. Brach. Plex. Maximum Dose</t>
+  </si>
+  <si>
+    <t>Ipsilat. Brach. Plex. V23.6Gy</t>
+  </si>
+  <si>
+    <t>Skin V30Gy</t>
+  </si>
+  <si>
+    <t>Heart Maximum Dose</t>
+  </si>
+  <si>
+    <t>Heart V28Gy</t>
+  </si>
+  <si>
+    <t>Esophagus Maximum Dose</t>
+  </si>
+  <si>
+    <t>Esophagus V18.8Gy</t>
+  </si>
+  <si>
+    <t>Chestwall (rib) Maximum Dose</t>
+  </si>
+  <si>
+    <t>Chestwall (rib) V40Gy</t>
+  </si>
+  <si>
+    <t>Chestwall (rib) V30Gy</t>
+  </si>
+  <si>
+    <t>Proximal Trachea and Bronchial Tree Maximum Dose</t>
+  </si>
+  <si>
+    <t>Proximal Trachea and Bronchial Tree V15.6Gy</t>
+  </si>
+  <si>
+    <t>Stomach and Intestines Maximum Dose</t>
+  </si>
+  <si>
+    <t>Stomach and Intestines V21Gy</t>
+  </si>
+  <si>
+    <t>V 2080 cGy</t>
+  </si>
+  <si>
+    <t>V 1360 cGy</t>
+  </si>
+  <si>
+    <t>V 3000 cGy</t>
+  </si>
+  <si>
+    <t>V 2800 cGy</t>
+  </si>
+  <si>
+    <t>V 1880 cGy</t>
+  </si>
+  <si>
+    <t>V 2000 cGy</t>
+  </si>
+  <si>
+    <t>V 1240 cGy</t>
+  </si>
+  <si>
+    <t>V 4000 cGy</t>
+  </si>
+  <si>
+    <t>V 4800 cGy</t>
+  </si>
+  <si>
+    <t>V 4320 cGy</t>
+  </si>
+  <si>
+    <t>V 1560 cGy</t>
+  </si>
+  <si>
+    <t>V 2100 cGy</t>
+  </si>
+  <si>
+    <t>Criteria</t>
+  </si>
+  <si>
+    <t>G37</t>
+  </si>
+  <si>
+    <t>G38</t>
+  </si>
+  <si>
+    <t>G39</t>
+  </si>
+  <si>
+    <t>G40</t>
+  </si>
+  <si>
+    <t>G41</t>
+  </si>
+  <si>
+    <t>G42</t>
+  </si>
+  <si>
+    <t>G45</t>
+  </si>
+  <si>
+    <t>G46</t>
+  </si>
+  <si>
+    <t>G47</t>
+  </si>
+  <si>
+    <t>G48</t>
+  </si>
+  <si>
+    <t>G49</t>
+  </si>
+  <si>
+    <t>G50</t>
+  </si>
+  <si>
+    <t>G51</t>
+  </si>
+  <si>
+    <t>G52</t>
+  </si>
+  <si>
+    <t>G53</t>
+  </si>
+  <si>
+    <t>G55</t>
+  </si>
+  <si>
+    <t>reference_name</t>
+  </si>
+  <si>
+    <t>reference_type</t>
+  </si>
+  <si>
+    <t>reference_laterality</t>
+  </si>
+  <si>
+    <t>reference_constructor</t>
+  </si>
+  <si>
+    <t>Min Dose</t>
+  </si>
+  <si>
+    <t>Max Dose</t>
+  </si>
+  <si>
+    <t>Mean Dose</t>
+  </si>
+  <si>
+    <t>V 6000 cGy</t>
+  </si>
+  <si>
+    <t>Aorta  V60Gy</t>
+  </si>
+  <si>
+    <t>G34</t>
+  </si>
+  <si>
+    <t>Artery-Pulmonary V60Gy</t>
+  </si>
+  <si>
+    <t>Ipsilat. Brach. Plex. V30Gy</t>
+  </si>
+  <si>
+    <t>Heart V60Gy</t>
+  </si>
+  <si>
+    <t>V 5000 cGy</t>
+  </si>
+  <si>
+    <t>Chestwall (rib) V50Gy</t>
+  </si>
+  <si>
+    <t>Proximal Trachea and Bronchial Tree V60Gy</t>
+  </si>
+  <si>
+    <t>Stomach and Intestines V36Gy</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>laterality</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -388,6 +1217,30 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -407,19 +1260,44 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -697,6 +1575,4667 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="6" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E10" t="s">
+        <v>178</v>
+      </c>
+      <c r="F10" t="s">
+        <v>172</v>
+      </c>
+      <c r="G10" t="s">
+        <v>165</v>
+      </c>
+      <c r="H10" t="s">
+        <v>166</v>
+      </c>
+      <c r="I10" t="s">
+        <v>167</v>
+      </c>
+      <c r="J10"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+    </row>
+  </sheetData>
+  <sortState ref="A2:E57">
+    <sortCondition descending="1" ref="A2:A57"/>
+  </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="D1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H56"/>
+  <sheetViews>
+    <sheetView topLeftCell="B14" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="48.42578125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="18" style="6" customWidth="1"/>
+    <col min="4" max="4" width="16" style="6" customWidth="1"/>
+    <col min="5" max="5" width="4.5703125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="12" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" t="s">
+        <v>297</v>
+      </c>
+      <c r="G1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2"/>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3"/>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4"/>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5"/>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C14" t="s">
+        <v>133</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" t="s">
+        <v>298</v>
+      </c>
+      <c r="G14" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C15" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" t="s">
+        <v>273</v>
+      </c>
+      <c r="G15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C16" t="s">
+        <v>133</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" t="s">
+        <v>274</v>
+      </c>
+      <c r="G16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C17" t="s">
+        <v>158</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
+        <v>118</v>
+      </c>
+      <c r="G17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="C18" t="s">
+        <v>156</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G18" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C19" t="s">
+        <v>149</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" t="s">
+        <v>299</v>
+      </c>
+      <c r="G19" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C20" t="s">
+        <v>157</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" t="s">
+        <v>118</v>
+      </c>
+      <c r="G20" t="s">
+        <v>61</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C21" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>300</v>
+      </c>
+      <c r="G21" t="s">
+        <v>65</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="C22" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" t="s">
+        <v>145</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" t="s">
+        <v>300</v>
+      </c>
+      <c r="G22" t="s">
+        <v>67</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="C23" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" t="s">
+        <v>145</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G23" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C24" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" t="s">
+        <v>145</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" t="s">
+        <v>126</v>
+      </c>
+      <c r="G24" t="s">
+        <v>73</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C25" t="s">
+        <v>117</v>
+      </c>
+      <c r="D25" t="s">
+        <v>145</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" t="s">
+        <v>271</v>
+      </c>
+      <c r="G25" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C26" t="s">
+        <v>114</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" t="s">
+        <v>299</v>
+      </c>
+      <c r="G26" t="s">
+        <v>80</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C27" t="s">
+        <v>114</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" t="s">
+        <v>272</v>
+      </c>
+      <c r="G27" t="s">
+        <v>83</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C28" t="s">
+        <v>169</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" t="s">
+        <v>299</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C29" t="s">
+        <v>169</v>
+      </c>
+      <c r="D29"/>
+      <c r="E29" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" t="s">
+        <v>272</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C30" t="s">
+        <v>170</v>
+      </c>
+      <c r="D30"/>
+      <c r="E30" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" t="s">
+        <v>299</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C31" t="s">
+        <v>170</v>
+      </c>
+      <c r="D31"/>
+      <c r="E31" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" t="s">
+        <v>265</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C32" t="s">
+        <v>170</v>
+      </c>
+      <c r="D32"/>
+      <c r="E32" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" t="s">
+        <v>266</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C33" t="s">
+        <v>171</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" t="s">
+        <v>299</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" t="s">
+        <v>299</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" t="s">
+        <v>130</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C36" t="s">
+        <v>174</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" t="s">
+        <v>267</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="C37" t="s">
+        <v>175</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" t="s">
+        <v>299</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="C38" t="s">
+        <v>175</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" t="s">
+        <v>268</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C39" t="s">
+        <v>155</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" t="s">
+        <v>299</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="C40" t="s">
+        <v>155</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" t="s">
+        <v>269</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C41" t="s">
+        <v>154</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" t="s">
+        <v>299</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="C42" t="s">
+        <v>154</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" t="s">
+        <v>272</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="C43" t="s">
+        <v>154</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" t="s">
+        <v>267</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="C44" t="s">
+        <v>178</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" t="s">
+        <v>299</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C45" t="s">
+        <v>178</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" t="s">
+        <v>275</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" t="s">
+        <v>299</v>
+      </c>
+      <c r="G46" t="s">
+        <v>85</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" t="s">
+        <v>276</v>
+      </c>
+      <c r="G47" t="s">
+        <v>87</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>121</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="F48" t="s">
+        <v>121</v>
+      </c>
+      <c r="G48" t="s">
+        <v>47</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>121</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="F49" t="s">
+        <v>121</v>
+      </c>
+      <c r="G49" t="s">
+        <v>53</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>121</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="F50" t="s">
+        <v>121</v>
+      </c>
+      <c r="G50" t="s">
+        <v>53</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C51"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C52"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C53"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C54"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C55"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C56"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H48"/>
+  <sheetViews>
+    <sheetView topLeftCell="B8" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="48.42578125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="18" style="6" customWidth="1"/>
+    <col min="4" max="4" width="16" style="6" customWidth="1"/>
+    <col min="5" max="5" width="4.5703125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="12" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" t="s">
+        <v>297</v>
+      </c>
+      <c r="G1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2"/>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3"/>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4"/>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5"/>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C14" t="s">
+        <v>133</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" t="s">
+        <v>298</v>
+      </c>
+      <c r="G14" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C15" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" t="s">
+        <v>273</v>
+      </c>
+      <c r="G15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C16" t="s">
+        <v>133</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" t="s">
+        <v>274</v>
+      </c>
+      <c r="G16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C17" t="s">
+        <v>158</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
+        <v>118</v>
+      </c>
+      <c r="G17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="C18" t="s">
+        <v>156</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G18" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C19" t="s">
+        <v>149</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" t="s">
+        <v>299</v>
+      </c>
+      <c r="G19" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C20" t="s">
+        <v>157</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" t="s">
+        <v>118</v>
+      </c>
+      <c r="G20" t="s">
+        <v>61</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C21" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>300</v>
+      </c>
+      <c r="G21" t="s">
+        <v>65</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="C22" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" t="s">
+        <v>145</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" t="s">
+        <v>300</v>
+      </c>
+      <c r="G22" t="s">
+        <v>67</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="C23" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" t="s">
+        <v>145</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G23" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C24" t="s">
+        <v>114</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" t="s">
+        <v>299</v>
+      </c>
+      <c r="G24" t="s">
+        <v>77</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="C25" t="s">
+        <v>114</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" t="s">
+        <v>301</v>
+      </c>
+      <c r="G25" t="s">
+        <v>303</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C26" t="s">
+        <v>169</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" t="s">
+        <v>299</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="C27" t="s">
+        <v>169</v>
+      </c>
+      <c r="D27"/>
+      <c r="E27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" t="s">
+        <v>301</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C28" t="s">
+        <v>170</v>
+      </c>
+      <c r="D28"/>
+      <c r="E28" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" t="s">
+        <v>299</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" t="s">
+        <v>299</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" t="s">
+        <v>267</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="C31" t="s">
+        <v>175</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" t="s">
+        <v>299</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="C32" t="s">
+        <v>175</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" t="s">
+        <v>301</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C33" t="s">
+        <v>155</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" t="s">
+        <v>299</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C34" t="s">
+        <v>154</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" t="s">
+        <v>299</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="C35" t="s">
+        <v>154</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" t="s">
+        <v>307</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="C36" t="s">
+        <v>178</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" t="s">
+        <v>299</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C37" t="s">
+        <v>178</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" t="s">
+        <v>301</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" t="s">
+        <v>299</v>
+      </c>
+      <c r="G38" t="s">
+        <v>286</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" t="s">
+        <v>129</v>
+      </c>
+      <c r="G39" t="s">
+        <v>287</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>121</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="F40" t="s">
+        <v>121</v>
+      </c>
+      <c r="G40" t="s">
+        <v>47</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>121</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="F41" t="s">
+        <v>121</v>
+      </c>
+      <c r="G41" t="s">
+        <v>53</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>121</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="F42" t="s">
+        <v>121</v>
+      </c>
+      <c r="G42" t="s">
+        <v>53</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C43"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C44"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C45"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C46"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C47"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C48"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="48.42578125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="18" style="6" customWidth="1"/>
+    <col min="4" max="4" width="16" style="6" customWidth="1"/>
+    <col min="5" max="5" width="4.5703125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="12" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" style="8" customWidth="1"/>
+    <col min="10" max="13" width="9.140625" style="6"/>
+    <col min="15" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3"/>
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="N3" s="6"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4"/>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5"/>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6"/>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="N10" s="6"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C11" t="s">
+        <v>177</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="N13" s="6"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C15" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" t="s">
+        <v>120</v>
+      </c>
+      <c r="G15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="N15" s="6"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C16" t="s">
+        <v>133</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" t="s">
+        <v>273</v>
+      </c>
+      <c r="G16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I16" s="11">
+        <v>0.95</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" t="s">
+        <v>274</v>
+      </c>
+      <c r="G17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I17" s="11">
+        <v>0.99</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="N17" s="6"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C18" t="s">
+        <v>158</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G18" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="C19" t="s">
+        <v>156</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" t="s">
+        <v>118</v>
+      </c>
+      <c r="G19" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C20" t="s">
+        <v>149</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" t="s">
+        <v>119</v>
+      </c>
+      <c r="G20" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C21" t="s">
+        <v>157</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" t="s">
+        <v>118</v>
+      </c>
+      <c r="G21" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="N21" s="6"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C22" t="s">
+        <v>173</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" t="s">
+        <v>122</v>
+      </c>
+      <c r="G22" t="s">
+        <v>65</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="C23" t="s">
+        <v>163</v>
+      </c>
+      <c r="D23" t="s">
+        <v>145</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
+        <v>122</v>
+      </c>
+      <c r="G23" t="s">
+        <v>67</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="N23" s="6"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="C24" t="s">
+        <v>163</v>
+      </c>
+      <c r="D24" t="s">
+        <v>145</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G24" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="N24" s="6"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C25" t="s">
+        <v>163</v>
+      </c>
+      <c r="D25" t="s">
+        <v>145</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" t="s">
+        <v>126</v>
+      </c>
+      <c r="G25" t="s">
+        <v>73</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I25" s="8">
+        <v>1500</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C26" t="s">
+        <v>163</v>
+      </c>
+      <c r="D26" t="s">
+        <v>145</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" t="s">
+        <v>271</v>
+      </c>
+      <c r="G26" t="s">
+        <v>77</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I26" s="8">
+        <v>1000</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C27" t="s">
+        <v>114</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" t="s">
+        <v>119</v>
+      </c>
+      <c r="G27" t="s">
+        <v>80</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I27" s="8">
+        <v>4800</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="N27" s="6"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C28" t="s">
+        <v>114</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" t="s">
+        <v>272</v>
+      </c>
+      <c r="G28" t="s">
+        <v>83</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="N28" s="6"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C29" t="s">
+        <v>169</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" t="s">
+        <v>119</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I29" s="8">
+        <v>4800</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C30" t="s">
+        <v>169</v>
+      </c>
+      <c r="D30"/>
+      <c r="E30" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" t="s">
+        <v>272</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="O30" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q30" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C31" t="s">
+        <v>170</v>
+      </c>
+      <c r="D31"/>
+      <c r="E31" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" t="s">
+        <v>119</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I31" s="8">
+        <v>2600</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C32" t="s">
+        <v>170</v>
+      </c>
+      <c r="D32"/>
+      <c r="E32" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" t="s">
+        <v>265</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C33" t="s">
+        <v>170</v>
+      </c>
+      <c r="D33"/>
+      <c r="E33" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" t="s">
+        <v>266</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C34" t="s">
+        <v>171</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" t="s">
+        <v>119</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I34" s="8">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" t="s">
+        <v>119</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I35" s="8">
+        <v>2700</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="N35" s="6"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" t="s">
+        <v>130</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C37" t="s">
+        <v>174</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" t="s">
+        <v>267</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="C38" t="s">
+        <v>175</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" t="s">
+        <v>119</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I38" s="8">
+        <v>3400</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="C39" t="s">
+        <v>175</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" t="s">
+        <v>268</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C40" t="s">
+        <v>155</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" t="s">
+        <v>119</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I40" s="8">
+        <v>3000</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="C41" t="s">
+        <v>155</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" t="s">
+        <v>269</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C42" t="s">
+        <v>154</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" t="s">
+        <v>119</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I42" s="8">
+        <v>5000</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="C43" t="s">
+        <v>154</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" t="s">
+        <v>272</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="C44" t="s">
+        <v>154</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" t="s">
+        <v>267</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="C45" t="s">
+        <v>178</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" t="s">
+        <v>119</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I45" s="8">
+        <v>3480</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C46" t="s">
+        <v>178</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" t="s">
+        <v>275</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" t="s">
+        <v>119</v>
+      </c>
+      <c r="G47" t="s">
+        <v>85</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I47" s="8">
+        <v>2800</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A48" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F48" t="s">
+        <v>276</v>
+      </c>
+      <c r="G48" t="s">
+        <v>87</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="J48" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>121</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="F49" t="s">
+        <v>121</v>
+      </c>
+      <c r="G49" t="s">
+        <v>47</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>121</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="F50" t="s">
+        <v>121</v>
+      </c>
+      <c r="G50" t="s">
+        <v>53</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>121</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="F51" t="s">
+        <v>121</v>
+      </c>
+      <c r="G51" t="s">
+        <v>53</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C52"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C53"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C54"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C55"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C56"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C57"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" t="s">
+        <v>145</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" t="s">
+        <v>142</v>
+      </c>
+      <c r="E14" t="s">
+        <v>120</v>
+      </c>
+      <c r="F14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" t="s">
+        <v>142</v>
+      </c>
+      <c r="E15" t="s">
+        <v>123</v>
+      </c>
+      <c r="F15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" t="s">
+        <v>142</v>
+      </c>
+      <c r="E16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" t="s">
+        <v>142</v>
+      </c>
+      <c r="E17" t="s">
+        <v>118</v>
+      </c>
+      <c r="F17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
+        <v>142</v>
+      </c>
+      <c r="E18" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" t="s">
+        <v>142</v>
+      </c>
+      <c r="E19" t="s">
+        <v>118</v>
+      </c>
+      <c r="F19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" t="s">
+        <v>142</v>
+      </c>
+      <c r="E20" t="s">
+        <v>121</v>
+      </c>
+      <c r="F20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" t="s">
+        <v>142</v>
+      </c>
+      <c r="E21" t="s">
+        <v>119</v>
+      </c>
+      <c r="F21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" t="s">
+        <v>142</v>
+      </c>
+      <c r="E22" t="s">
+        <v>118</v>
+      </c>
+      <c r="F22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" t="s">
+        <v>61</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" t="s">
+        <v>142</v>
+      </c>
+      <c r="E23" t="s">
+        <v>118</v>
+      </c>
+      <c r="F23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" t="s">
+        <v>53</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C24" t="s">
+        <v>142</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E24" t="s">
+        <v>122</v>
+      </c>
+      <c r="F24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" t="s">
+        <v>65</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" t="s">
+        <v>142</v>
+      </c>
+      <c r="D25" t="s">
+        <v>145</v>
+      </c>
+      <c r="E25" t="s">
+        <v>122</v>
+      </c>
+      <c r="F25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" t="s">
+        <v>67</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" t="s">
+        <v>142</v>
+      </c>
+      <c r="D26" t="s">
+        <v>145</v>
+      </c>
+      <c r="E26" t="s">
+        <v>125</v>
+      </c>
+      <c r="F26" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" t="s">
+        <v>69</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" t="s">
+        <v>142</v>
+      </c>
+      <c r="D27" t="s">
+        <v>145</v>
+      </c>
+      <c r="E27" t="s">
+        <v>126</v>
+      </c>
+      <c r="F27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" t="s">
+        <v>73</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" t="s">
+        <v>142</v>
+      </c>
+      <c r="D28" t="s">
+        <v>145</v>
+      </c>
+      <c r="E28" t="s">
+        <v>127</v>
+      </c>
+      <c r="F28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" t="s">
+        <v>77</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" t="s">
+        <v>142</v>
+      </c>
+      <c r="E29" t="s">
+        <v>119</v>
+      </c>
+      <c r="F29" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" t="s">
+        <v>80</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" t="s">
+        <v>142</v>
+      </c>
+      <c r="E30" t="s">
+        <v>128</v>
+      </c>
+      <c r="F30" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" t="s">
+        <v>83</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" t="s">
+        <v>142</v>
+      </c>
+      <c r="E31" t="s">
+        <v>119</v>
+      </c>
+      <c r="F31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" t="s">
+        <v>85</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" t="s">
+        <v>142</v>
+      </c>
+      <c r="E32" t="s">
+        <v>129</v>
+      </c>
+      <c r="F32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" t="s">
+        <v>87</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C33" t="s">
+        <v>142</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E33" t="s">
+        <v>119</v>
+      </c>
+      <c r="F33" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" t="s">
+        <v>89</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C34" t="s">
+        <v>142</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E34" t="s">
+        <v>130</v>
+      </c>
+      <c r="F34" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" t="s">
+        <v>92</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1192,543 +6731,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E37"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" t="s">
-        <v>73</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B28" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" t="s">
-        <v>77</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" t="s">
-        <v>80</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" t="s">
-        <v>83</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" t="s">
-        <v>85</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" t="s">
-        <v>87</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B33" s="1"/>
-      <c r="C33" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" t="s">
-        <v>89</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="C34" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" t="s">
-        <v>92</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="1"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B34"/>
   <sheetViews>
@@ -1747,7 +6750,7 @@
         <v>95</v>
       </c>
       <c r="B1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/Test Data/ReportReference.xlsx
+++ b/Test Data/ReportReference.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Greg\OneDrive - Queen's University\Python\Projects\Plan Evaluation\Test Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14040" windowHeight="4755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14040" windowHeight="4755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Aliases" sheetId="10" r:id="rId1"/>
@@ -20,7 +15,7 @@
     <sheet name="Conditions" sheetId="1" r:id="rId6"/>
     <sheet name="Values" sheetId="2" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1567,7 +1562,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1577,8 +1572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1832,8 +1827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView topLeftCell="B14" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2257,7 +2252,7 @@
         <v>58</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -3022,8 +3017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView topLeftCell="B8" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3447,7 +3442,7 @@
         <v>58</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
